--- a/Membership/Create Rate/Main.rvl.xlsx
+++ b/Membership/Create Rate/Main.rvl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="212">
   <si>
     <t>Flow</t>
   </si>
@@ -559,6 +559,102 @@
   <si>
     <t>C:\UX 365 Regression Testing\JSON\Global.json</t>
   </si>
+  <si>
+    <t>***Test creates all Benefits in MembershipData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the benefit to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the benefit is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the benefit using the data in the spreadsheet.</t>
+  </si>
+  <si>
+    <t>*******After each benefit is created, the Create Rate test run to create all of the rates for that benefit.</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>***Test creates all Rates for the identified Benefit in MembershipData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Benefit Name is stored in the global JSON.</t>
+  </si>
+  <si>
+    <t>****Test opens the benefit and searches for the rate to see if it exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the rate is not created.</t>
+  </si>
+  <si>
+    <t>*****Test opens the benefit and searches for the rate to see if it exists.</t>
+  </si>
+  <si>
+    <t>******If it already exists, the rate is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the rate using the data in the spreadsheet.</t>
+  </si>
+  <si>
+    <t>*******If it doesn't exist, the test creates the rate using the data in the spreadsheet.</t>
+  </si>
+  <si>
+    <t>Get Benefit Name from global JSON.</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\JSON\Global.json</t>
+  </si>
+  <si>
+    <t>\MembershipData.xls</t>
+  </si>
+  <si>
+    <t>Open benefit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate: </t>
+  </si>
+  <si>
+    <t>Open Benefit.</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Rate does not exist.</t>
+  </si>
+  <si>
+    <t>Validate that the Rate was created.</t>
+  </si>
+  <si>
+    <t>Check if Benefit is a Primary Benefit.</t>
+  </si>
+  <si>
+    <t>Terminate_OK</t>
+  </si>
+  <si>
+    <t>If it is, then create Price Level X-Ref.</t>
+  </si>
+  <si>
+    <t>If it is, then run test to create Price Level X-Ref.</t>
+  </si>
+  <si>
+    <t>Benefit is Primary.</t>
+  </si>
+  <si>
+    <t>*****Run Create Price Level XRef Test*****</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Membership\MembershipData.xls</t>
+  </si>
 </sst>
 </file>
 
@@ -578,7 +674,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11555">
+  <borders count="11576">
     <border>
       <left/>
       <right/>
@@ -12140,11 +12236,32 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11555">
+  <cellXfs count="11576">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -23700,6 +23817,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11552" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11553" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11554" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11555" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11556" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11557" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11558" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11559" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11560" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11561" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11562" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11563" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11564" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11565" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11566" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11567" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11568" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11569" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11570" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11571" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11572" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11573" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11574" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11575" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23709,7 +23847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H131"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -23825,7 +23963,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -23931,7 +24069,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
@@ -24018,456 +24156,460 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7123"/>
+      <c r="A23" s="11564"/>
     </row>
     <row r="24">
-      <c r="A24" s="7122" t="s">
-        <v>34</v>
-      </c>
+      <c r="A24" s="11562"/>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7121"/>
+      <c r="A25" s="11565"/>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7120"/>
+      <c r="A26" s="11561"/>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7119"/>
+      <c r="A27" s="11560"/>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7118"/>
+      <c r="A28" s="11559"/>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7117"/>
-      <c r="B29" t="s">
+      <c r="A29" s="11557"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11556"/>
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7123"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7122" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11566"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D33" t="s">
         <v>45</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E33" t="s">
         <v>46</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F33" t="s">
         <v>13</v>
       </c>
-      <c r="G29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7116"/>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7115"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7114" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7113" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
+      <c r="G33" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7112" t="s">
-        <v>34</v>
-      </c>
+      <c r="A34" s="7121"/>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7111" t="s">
-        <v>67</v>
-      </c>
+      <c r="A35" s="7120"/>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7119"/>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7118"/>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7110"/>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7109"/>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7108"/>
+      <c r="A38" s="7117"/>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7107"/>
+      <c r="A39" s="7116"/>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7106"/>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>166</v>
-      </c>
+      <c r="A40" s="7115"/>
     </row>
     <row r="41">
-      <c r="A41" s="7105"/>
+      <c r="A41" s="7114" t="s">
+        <v>34</v>
+      </c>
       <c r="B41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7113" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="E41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7110"/>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7109"/>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s">
         <v>38</v>
       </c>
-      <c r="G41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11442"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="11441" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11440"/>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11439"/>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11438"/>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11437"/>
+      <c r="A47" s="7108"/>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7107"/>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" t="s">
         <v>38</v>
       </c>
-      <c r="G47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11436"/>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" t="s">
-        <v>26</v>
-      </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11435"/>
+      <c r="A49" s="7106"/>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>137</v>
-      </c>
-      <c r="H49" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11434"/>
+      <c r="A50" s="7105"/>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11442"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="11441" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11568"/>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
         <v>13</v>
       </c>
-      <c r="G50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11433"/>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="7104"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="7093" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
-        <v>144</v>
+      <c r="G53" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7092"/>
+      <c r="A54" s="11440"/>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7091"/>
+      <c r="A55" s="11439"/>
       <c r="B55" t="s">
         <v>3</v>
       </c>
@@ -24475,20 +24617,20 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7090"/>
+      <c r="A56" s="11438"/>
       <c r="B56" t="s">
         <v>3</v>
       </c>
@@ -24496,20 +24638,20 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7089"/>
+      <c r="A57" s="11437"/>
       <c r="B57" t="s">
         <v>3</v>
       </c>
@@ -24517,111 +24659,127 @@
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7088"/>
+      <c r="A58" s="11436"/>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11435"/>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
         <v>63</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>141</v>
       </c>
-      <c r="G58" t="s">
-        <v>66</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G59" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="7087"/>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="60">
-      <c r="A60" s="7086"/>
+      <c r="A60" s="11434"/>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7085" t="s">
-        <v>67</v>
-      </c>
+      <c r="A61" s="11433"/>
       <c r="B61" t="s">
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7084"/>
-      <c r="B62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" t="s">
-        <v>71</v>
-      </c>
+      <c r="A62" s="7104"/>
     </row>
     <row r="63">
-      <c r="A63" s="7083"/>
+      <c r="A63" s="7093" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="7082" t="s">
-        <v>34</v>
-      </c>
+      <c r="A64" s="7092"/>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7081"/>
+      <c r="A65" s="11569"/>
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -24638,11 +24796,11 @@
         <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7080"/>
+      <c r="A66" s="11570"/>
       <c r="B66" t="s">
         <v>11</v>
       </c>
@@ -24657,7 +24815,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7079"/>
+      <c r="A67" s="7091"/>
       <c r="B67" t="s">
         <v>3</v>
       </c>
@@ -24665,7 +24823,7 @@
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E67" t="s">
         <v>50</v>
@@ -24674,32 +24832,32 @@
         <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7078"/>
+      <c r="A68" s="7090"/>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="G68" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7077"/>
+      <c r="A69" s="7089"/>
       <c r="B69" t="s">
         <v>3</v>
       </c>
@@ -24707,25 +24865,31 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7076"/>
+      <c r="A70" s="7088"/>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
         <v>141</v>
@@ -24733,114 +24897,79 @@
       <c r="G70" t="s">
         <v>66</v>
       </c>
+      <c r="H70" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="7075"/>
+      <c r="A71" s="7087"/>
       <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F71" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7074"/>
+      <c r="A72" s="7086"/>
       <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7073"/>
+      <c r="A73" s="7085" t="s">
+        <v>67</v>
+      </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F73" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7072"/>
+      <c r="A74" s="7084"/>
       <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" t="s">
-        <v>101</v>
-      </c>
-      <c r="F74" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7071"/>
-      <c r="B75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" t="s">
-        <v>124</v>
-      </c>
+      <c r="A75" s="7083"/>
     </row>
     <row r="76">
-      <c r="A76" s="7070"/>
+      <c r="A76" s="7082" t="s">
+        <v>34</v>
+      </c>
       <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7069"/>
+      <c r="A77" s="11571"/>
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -24857,218 +24986,301 @@
         <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7068"/>
+      <c r="A78" s="7081"/>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7067"/>
+      <c r="A79" s="7080"/>
       <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7079"/>
+      <c r="B80" t="s">
         <v>3</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>48</v>
       </c>
-      <c r="D79" t="s">
-        <v>115</v>
-      </c>
-      <c r="E79" t="s">
-        <v>101</v>
-      </c>
-      <c r="F79" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="7066"/>
-      <c r="B80" t="s">
-        <v>11</v>
+      <c r="D80" t="s">
+        <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7065"/>
+      <c r="A81" s="7078"/>
       <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7077"/>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" t="s">
+        <v>101</v>
+      </c>
+      <c r="F82" t="s">
+        <v>41</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7076"/>
+      <c r="B83" t="s">
         <v>11</v>
       </c>
-      <c r="E81" t="s">
-        <v>119</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E83" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" t="s">
         <v>141</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="7064"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="7063" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="84">
-      <c r="A84" s="11432" t="s">
-        <v>74</v>
-      </c>
+      <c r="A84" s="7075"/>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>102</v>
+      </c>
+      <c r="D84" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="11431" t="s">
-        <v>34</v>
-      </c>
+      <c r="A85" s="7074"/>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="11430" t="s">
-        <v>67</v>
-      </c>
+      <c r="A86" s="7073"/>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="G86" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="11429"/>
+      <c r="A87" s="7072"/>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>108</v>
+      </c>
+      <c r="E87" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="11428"/>
+      <c r="A88" s="7071"/>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="G88" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="11427"/>
+      <c r="A89" s="7070"/>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="11426"/>
+      <c r="A90" s="7069"/>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" t="s">
+        <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="11425"/>
+      <c r="A91" s="7068"/>
       <c r="B91" t="s">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="11424" t="s">
+      <c r="A92" s="7067"/>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92" t="s">
+        <v>141</v>
+      </c>
+      <c r="G92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7064"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="7063" t="s">
         <v>32</v>
       </c>
-      <c r="B92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11423" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11422"/>
     </row>
     <row r="95">
-      <c r="A95" s="11421"/>
+      <c r="A95" s="11572"/>
       <c r="B95" t="s">
         <v>3</v>
       </c>
@@ -25085,266 +25297,459 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="11420"/>
+      <c r="A96" s="11573"/>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" t="s">
+        <v>45</v>
       </c>
       <c r="E96" t="s">
         <v>46</v>
       </c>
       <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="11574"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="11432" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="11431" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11430" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>68</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="11429"/>
+      <c r="B101" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11428"/>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>77</v>
+      </c>
+      <c r="F102" t="s">
         <v>38</v>
       </c>
-      <c r="G96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11419"/>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" t="s">
-        <v>125</v>
-      </c>
-      <c r="E97" t="s">
-        <v>126</v>
-      </c>
-      <c r="F97" t="s">
-        <v>38</v>
-      </c>
-      <c r="G97" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11418"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="11417" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" t="s">
-        <v>68</v>
-      </c>
-      <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11416"/>
-      <c r="B100" t="s">
-        <v>70</v>
-      </c>
-      <c r="D100" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11415"/>
-      <c r="B101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" t="s">
-        <v>77</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11414" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" t="s">
-        <v>72</v>
+      <c r="G102" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="11413"/>
+      <c r="A103" s="11427"/>
       <c r="B103" t="s">
         <v>3</v>
       </c>
       <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="11426"/>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>79</v>
+      </c>
+      <c r="F104" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="11425"/>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
         <v>44</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>45</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E105" t="s">
         <v>46</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F105" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="11424" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11423" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="11422"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="11421"/>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" t="s">
         <v>13</v>
       </c>
-      <c r="G103" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11412"/>
-      <c r="B104" t="s">
+      <c r="G109" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="11420"/>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>46</v>
+      </c>
+      <c r="F110" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="11419"/>
+      <c r="B111" t="s">
         <v>3</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="11418"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="11417" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="11416"/>
+      <c r="B114" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="11415"/>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>77</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="11414" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="11575"/>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11413"/>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="11412"/>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
         <v>174</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D119" t="s">
         <v>175</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E119" t="s">
         <v>176</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F119" t="s">
         <v>13</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G119" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="11411" t="s">
+    <row r="120">
+      <c r="A120" s="11411" t="s">
         <v>32</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B120" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="11410"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="7142" t="s">
+    <row r="121">
+      <c r="A121" s="11410"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="7142" t="s">
         <v>7</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B122" t="s">
         <v>7</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C122" t="s">
         <v>7</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D122" t="s">
         <v>7</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E122" t="s">
         <v>7</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F122" t="s">
         <v>7</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G122" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="7143" t="s">
+    <row r="123">
+      <c r="A123" s="7143" t="s">
         <v>32</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B123" t="s">
         <v>80</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C123" t="s">
         <v>7</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D123" t="s">
         <v>7</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E123" t="s">
         <v>7</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F123" t="s">
         <v>7</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G123" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="7061" t="s">
+    <row r="124">
+      <c r="A124" s="7061" t="s">
         <v>32</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B124" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="7060" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="7059" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="121"/>
-      <c r="B112" s="122"/>
-      <c r="C112" s="123"/>
-      <c r="D112" s="124"/>
-      <c r="E112" s="125"/>
-      <c r="F112" s="126"/>
-      <c r="G112" s="127"/>
-      <c r="H112" s="128"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="129"/>
-      <c r="B113" s="130"/>
-      <c r="C113" s="131"/>
-      <c r="D113" s="132"/>
-      <c r="E113" s="133"/>
-      <c r="F113" s="134"/>
-      <c r="G113" s="135"/>
-      <c r="H113" s="136"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="137"/>
-      <c r="B114" s="138"/>
-      <c r="C114" s="139"/>
-      <c r="D114" s="140"/>
-      <c r="E114" s="141"/>
-      <c r="F114" s="142"/>
-      <c r="G114" s="143"/>
-      <c r="H114" s="144"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="145"/>
-      <c r="B115" s="146"/>
-      <c r="C115" s="147"/>
-      <c r="D115" s="148"/>
-      <c r="E115" s="149"/>
-      <c r="F115" s="150"/>
-      <c r="G115" s="151"/>
-      <c r="H115" s="152"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="153"/>
-      <c r="B116" s="154"/>
-      <c r="C116" s="155"/>
-      <c r="D116" s="156"/>
-      <c r="E116" s="157"/>
-      <c r="F116" s="158"/>
-      <c r="G116" s="159"/>
-      <c r="H116" s="160"/>
+    <row r="125">
+      <c r="A125" s="7060" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7059" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="121"/>
+      <c r="B127" s="122"/>
+      <c r="C127" s="123"/>
+      <c r="D127" s="124"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="126"/>
+      <c r="G127" s="127"/>
+      <c r="H127" s="128"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="129"/>
+      <c r="B128" s="130"/>
+      <c r="C128" s="131"/>
+      <c r="D128" s="132"/>
+      <c r="E128" s="133"/>
+      <c r="F128" s="134"/>
+      <c r="G128" s="135"/>
+      <c r="H128" s="136"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="137"/>
+      <c r="B129" s="138"/>
+      <c r="C129" s="139"/>
+      <c r="D129" s="140"/>
+      <c r="E129" s="141"/>
+      <c r="F129" s="142"/>
+      <c r="G129" s="143"/>
+      <c r="H129" s="144"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="145"/>
+      <c r="B130" s="146"/>
+      <c r="C130" s="147"/>
+      <c r="D130" s="148"/>
+      <c r="E130" s="149"/>
+      <c r="F130" s="150"/>
+      <c r="G130" s="151"/>
+      <c r="H130" s="152"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="153"/>
+      <c r="B131" s="154"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="156"/>
+      <c r="E131" s="157"/>
+      <c r="F131" s="158"/>
+      <c r="G131" s="159"/>
+      <c r="H131" s="160"/>
     </row>
   </sheetData>
 </worksheet>
